--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CA)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CA).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CA)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(CA).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | CA 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,20 +528,142 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ca
-Cae
-Caelogyne - fam. Orchidacées
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cae</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Caelogyne - fam. Orchidacées
 Caelogyne cristata
-Caesalpinia
-Caj
-Cajanus - fam. Fabacées (arbuste fruitier)
+Caesalpinia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Caj</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cajanus - fam. Fabacées (arbuste fruitier)
 Cajanus cajan - Pois des Pigeons
-Cajanus indica - Pois d'Angole
-Cak
-Cakile - fam. Brassicacées
-Cakile maritima - Roquette de mer ou cakilier maritime
-Cal
-Caladium - fam. Aracées
+Cajanus indica - Pois d'Angole</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cak</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cakile - fam. Brassicacées
+Cakile maritima - Roquette de mer ou cakilier maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Caladium - fam. Aracées
 Caladium bicolor
 Calamagrostis
 Calamagrostis canadensis -  Calamagrostis du Canada
@@ -584,9 +718,47 @@
 Calystegia pulcra - Liseron joli
 Calystegia sepium - Liseron des haies
 Calystegia silvatica - Liseron d'Amérique
-Calystegia soldanella - Liseron des dunes
-Cam
-Camellia
+Calystegia soldanella - Liseron des dunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Camellia
 Camellia sinensis - Thé vierge
 Camellia japonica - Camélia du Japon ou « Rose du Japon »
 Camellia sasanqua
@@ -615,25 +787,139 @@
 Campsis grandiflora
 Camptosema
 Camptosorus
-Camptosorus rhizophyllus -  Camptosore à feuilles radicantes
-Can
-Canavalia
+Camptosorus rhizophyllus -  Camptosore à feuilles radicantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Can</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Canavalia
 Canavalia maritima
 Canavalia rosea
 Candolleodendron
 Canna - fam. Cannacées
 Canna indica - Canna ou « Conflore » ou « Balisier »
 Cannabis - fam. Cannabinacées
-Cannabis sativa - Chanvre
-Cap
-Capparis
+Cannabis sativa - Chanvre</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cap</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Capparis
 Capparis spinosa
 Capsella - fam. Brassicaceae
 Capsella bursa-pastoris - une Bourse à pasteur,
 Capsicum - fam. Solanacées
-Capsicum annuum - Piment d'ornement ou Poivron d'ornement
-Car
-Caragana - fam. Fabacées
+Capsicum annuum - Piment d'ornement ou Poivron d'ornement</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Caragana - fam. Fabacées
 Caragana arborescens - Caragana
 Carapa - fam. Méliacées
 Carapa guyanensis - Carapa
@@ -737,9 +1023,47 @@
 Carya ovata
 Carya tomentosa
 Caryophilus - fam. Myrtacées
-Caryophilus aromaticus - Giroflier
-Cas
-Cassia - fam. Fabacées/Césalpiniacées
+Caryophilus aromaticus - Giroflier</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cas</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cassia - fam. Fabacées/Césalpiniacées
 Cassia angustifolia - Séné
 Castanea - fam. Fagacées
 Castanea sativa - Châtaignier
@@ -751,9 +1075,47 @@
 Castilleja raupii
 Casuarina - fam. Casuarinacées (arbre)
 Casuarina cunninghamiana -  Pin australien 
-Casuarina equisetifolia - Filao
-Cat
-Catabrosa
+Casuarina equisetifolia - Filao</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(CA)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cat</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catabrosa
 Catabrosa algida
 Catabrosa aquatica - Carabrosa aquatique
 Catalpa
